--- a/biology/Botanique/Hyparrhenia/Hyparrhenia.xlsx
+++ b/biology/Botanique/Hyparrhenia/Hyparrhenia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hyparrhenia est un genre  de plantes monocotylédones de la  famille des Poaceae, sous-famille des Panicoideae, originaire du bassin méditerranéen, d'Afrique, d'Arabie et d'Amérique, qui regroupe une cinquantaine d'espèces.
 Ce sont des plantes herbacées, généralement vivaces, rarement annuelles, cespiteuses, dont les tiges (chaumes) peuvent atteindre de 30 à 300 cm de long. Certaines espèces de ce genre ont une importance économique, soit comme plantes fourragères, en particulier Hyparrhenia rufa, soit comme mauvaises herbes des cultures.
@@ -512,9 +524,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon "The Plant List"[1]   29 avril 2013
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon "The Plant List"   29 avril 2013
 Hyparrhenia anamesa Clayton, (1969)
 Hyparrhenia andongensis (Rendle) Stapf , (1918)
 Hyparrhenia anemopaegma Clayton, (1969)
@@ -604,6 +618,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -629,9 +645,11 @@
           <t>Espèces au statut non encore résolu</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon "The Plant List"[1]   29 avril 2013
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon "The Plant List"   29 avril 2013
 Hyparrhenia baddadae  Chiov. [Unplaced]
 Hyparrhenia genniamia  Andersson [Unplaced]
 Hyparrhenia pendula  Peter [Unplaced]</t>
